--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
